--- a/NformTester/NformTester/Keywordscripts/600.20.20.150_ForwardTrapWithThePortNumberOtherThan162.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.150_ForwardTrapWithThePortNumberOtherThan162.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7894" uniqueCount="896">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4007,6 +4007,10 @@
   <si>
     <t>$Forward_trap$</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4285,7 +4289,35 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4358,74 +4390,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4437,7 +4401,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4714,7 +4678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -4927,7 +4891,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="22">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="13">
         <v>6</v>
@@ -6591,14 +6555,12 @@
         <v>348</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>881</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
@@ -6611,13 +6573,13 @@
         <v>71</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>348</v>
+        <v>895</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>2</v>
@@ -6635,13 +6597,13 @@
         <v>72</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>878</v>
+        <v>895</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>2</v>
@@ -6659,16 +6621,20 @@
         <v>73</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="F74" s="13">
-        <v>5</v>
-      </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+        <v>348</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>881</v>
+      </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
@@ -6687,7 +6653,7 @@
         <v>348</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>2</v>
@@ -6700,16 +6666,22 @@
       <c r="M75" s="13"/>
       <c r="N75" s="19"/>
     </row>
-    <row r="76" spans="3:14" s="11" customFormat="1" ht="15">
+    <row r="76" spans="3:14" s="11" customFormat="1">
       <c r="C76" s="13">
         <v>75</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="D76" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -6723,10 +6695,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>868</v>
+        <v>799</v>
       </c>
       <c r="F77" s="13">
         <v>5</v>
@@ -6748,40 +6720,34 @@
         <v>830</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="19"/>
     </row>
-    <row r="79" spans="3:14" s="11" customFormat="1">
+    <row r="79" spans="3:14" s="11" customFormat="1" ht="15">
       <c r="C79" s="13">
         <v>78</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>869</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
+      <c r="D79" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -6793,20 +6759,16 @@
         <v>79</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>857</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="F80" s="13">
+        <v>5</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
@@ -6814,24 +6776,24 @@
       <c r="M80" s="13"/>
       <c r="N80" s="19"/>
     </row>
-    <row r="81" spans="3:14" s="11" customFormat="1" ht="14.25">
+    <row r="81" spans="3:14" s="11" customFormat="1">
       <c r="C81" s="13">
         <v>80</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>870</v>
+        <v>19</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="13"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -6845,17 +6807,17 @@
       <c r="D82" s="14" t="s">
         <v>869</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>628</v>
+      <c r="E82" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="15"/>
-      <c r="I82" s="13"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -6873,34 +6835,38 @@
         <v>870</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>100</v>
+        <v>621</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="I83" s="13"/>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="19"/>
     </row>
-    <row r="84" spans="3:14" s="11" customFormat="1">
+    <row r="84" spans="3:14" s="11" customFormat="1" ht="14.25">
       <c r="C84" s="13">
         <v>83</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="F84" s="13">
-        <v>3</v>
-      </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+        <v>870</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="21"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -6908,59 +6874,137 @@
       <c r="M84" s="13"/>
       <c r="N84" s="19"/>
     </row>
+    <row r="85" spans="3:14" s="11" customFormat="1">
+      <c r="C85" s="13">
+        <v>84</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="19"/>
+    </row>
+    <row r="86" spans="3:14" s="11" customFormat="1">
+      <c r="C86" s="13">
+        <v>85</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="19"/>
+    </row>
+    <row r="87" spans="3:14" s="11" customFormat="1">
+      <c r="C87" s="13">
+        <v>86</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="F87" s="13">
+        <v>3</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N84">
-    <cfRule type="cellIs" dxfId="9" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N87">
+    <cfRule type="cellIs" dxfId="13" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71:N73">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D84 D78 D61:D67 D70:D75 D7:D24 D45:D51 D38:D43 D26:D36 D53:D59 D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87 D81 D61:D67 D3 D7:D24 D45:D51 D38:D43 D26:D36 D53:D59 D70:D78">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G84 G2:G79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G84:G87 G2:G82">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F56 F58:F84 F2:F42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F56 F2:F42 F58:F87">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E87">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.150_ForwardTrapWithThePortNumberOtherThan162.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.150_ForwardTrapWithThePortNumberOtherThan162.xlsx
@@ -3834,10 +3834,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4010,6 +4006,10 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4289,21 +4289,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -4680,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4747,7 +4733,7 @@
         <v>820</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -4773,13 +4759,13 @@
         <v>822</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>0</v>
@@ -4789,13 +4775,13 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>884</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>885</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -4814,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4839,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>620</v>
@@ -4849,13 +4835,13 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>889</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>890</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -4867,7 +4853,7 @@
         <v>827</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C6" s="13">
         <v>5</v>
@@ -5031,7 +5017,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -5180,7 +5166,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -5248,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -5449,7 +5435,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="13"/>
@@ -5527,7 +5513,7 @@
         <v>56</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -5604,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>849</v>
+        <v>895</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -5626,10 +5612,10 @@
         <v>435</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>850</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>851</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -5649,13 +5635,13 @@
         <v>433</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -5741,7 +5727,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5792,7 +5778,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -5813,7 +5799,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>2</v>
@@ -5837,13 +5823,13 @@
         <v>19</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -5881,10 +5867,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>858</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>859</v>
       </c>
       <c r="F43" s="13">
         <v>2</v>
@@ -5903,7 +5889,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="13"/>
@@ -5951,7 +5937,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>2</v>
@@ -5981,7 +5967,7 @@
         <v>56</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>849</v>
+        <v>895</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -6091,7 +6077,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="13"/>
@@ -6139,7 +6125,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>2</v>
@@ -6163,7 +6149,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>58</v>
@@ -6209,10 +6195,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>858</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>859</v>
       </c>
       <c r="F57" s="13">
         <v>2</v>
@@ -6234,16 +6220,16 @@
         <v>830</v>
       </c>
       <c r="E58" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>864</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>865</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="13"/>
@@ -6260,7 +6246,7 @@
         <v>830</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>100</v>
@@ -6281,7 +6267,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
@@ -6299,7 +6285,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>19</v>
@@ -6323,7 +6309,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>19</v>
@@ -6347,7 +6333,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>348</v>
@@ -6359,7 +6345,7 @@
         <v>56</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -6373,7 +6359,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>348</v>
@@ -6409,7 +6395,7 @@
         <v>56</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
@@ -6438,7 +6424,7 @@
         <v>839</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J66" s="13" t="b">
         <v>1</v>
@@ -6573,7 +6559,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>19</v>
@@ -6597,7 +6583,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>19</v>
@@ -6633,7 +6619,7 @@
         <v>56</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -6674,7 +6660,7 @@
         <v>830</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>244</v>
@@ -6695,7 +6681,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>799</v>
@@ -6741,7 +6727,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="13"/>
@@ -6759,10 +6745,10 @@
         <v>79</v>
       </c>
       <c r="D80" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>867</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>868</v>
       </c>
       <c r="F80" s="13">
         <v>5</v>
@@ -6805,7 +6791,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>19</v>
@@ -6829,10 +6815,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>870</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>621</v>
@@ -6841,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -6855,10 +6841,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>870</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>213</v>
@@ -6879,7 +6865,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>628</v>
@@ -6903,10 +6889,10 @@
         <v>85</v>
       </c>
       <c r="D86" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>870</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>100</v>
@@ -6927,10 +6913,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F87" s="13">
         <v>3</v>
@@ -6947,50 +6933,50 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="N2:N87">
-    <cfRule type="cellIs" dxfId="13" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71:N73">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
